--- a/data/trans_dic/P23_1_R_2016_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P23_1_R_2016_2023-Clase-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.173146439878855</v>
+        <v>0.1774540863185912</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1268769956531829</v>
+        <v>0.1209830234718173</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1310185315326016</v>
+        <v>0.1311781590161141</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09461112824044909</v>
+        <v>0.09473569951222666</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1664272077974049</v>
+        <v>0.1674413477737322</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1175641935549117</v>
+        <v>0.1173785861514071</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2565154674644824</v>
+        <v>0.261716044862572</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1879630359997522</v>
+        <v>0.1888150218652572</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2162329087714726</v>
+        <v>0.2109540114129061</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1424843949046377</v>
+        <v>0.1437068363754804</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2230160198465412</v>
+        <v>0.2247764382577388</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1589673533069064</v>
+        <v>0.15862212662013</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2073776738640018</v>
+        <v>0.2024450498598468</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1425756890157162</v>
+        <v>0.1432492294305192</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2060605275503456</v>
+        <v>0.2065060525005583</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1538704288178991</v>
+        <v>0.1551890213099193</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2191973287451615</v>
+        <v>0.2178663626759678</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1558801813754705</v>
+        <v>0.1572466235665265</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2950029386351147</v>
+        <v>0.2957222235046034</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.214200386907825</v>
+        <v>0.2135153904514932</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3017738284352619</v>
+        <v>0.2969966775779054</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.22269489012669</v>
+        <v>0.2243895099112156</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2815200723930889</v>
+        <v>0.2809262494858197</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2042755776067764</v>
+        <v>0.2067940054072372</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +776,7 @@
         <v>0.3881070805271308</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.2511061546270393</v>
+        <v>0.2511061546270392</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.2769457123825822</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3491029826426721</v>
+        <v>0.3460824366311152</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2081191999960497</v>
+        <v>0.2067864660667443</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2102527728606737</v>
+        <v>0.2081201673432902</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09424869096152926</v>
+        <v>0.09401899543064096</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3244351392667767</v>
+        <v>0.3280823232942631</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1889230869233146</v>
+        <v>0.1872394564451566</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.435219237595157</v>
+        <v>0.4292813096010133</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2938074575838444</v>
+        <v>0.2941045359347035</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3505521445739997</v>
+        <v>0.3543225330018179</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1793892084822703</v>
+        <v>0.1728154741748598</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.399439656760012</v>
+        <v>0.4002887926114378</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2536932545066944</v>
+        <v>0.2554781646593364</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3227693020156386</v>
+        <v>0.3212733690668682</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2646353200751839</v>
+        <v>0.2658828385552517</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3127730576583465</v>
+        <v>0.3133713502429986</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2188973200196734</v>
+        <v>0.2202291262224332</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3271274114201945</v>
+        <v>0.3263068878025125</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2528460498299217</v>
+        <v>0.2543861251325634</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3805757985563079</v>
+        <v>0.3762300887986852</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3218168408155069</v>
+        <v>0.3239797100987331</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3786506815576696</v>
+        <v>0.3779321452662377</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2714454832196944</v>
+        <v>0.2718361169367008</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3689936792471022</v>
+        <v>0.3684174541125154</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2949091348903333</v>
+        <v>0.2962002902910171</v>
       </c>
     </row>
     <row r="16">
@@ -940,19 +940,19 @@
         <v>0.3729611597694265</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.3108013499357594</v>
+        <v>0.3108013499357593</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.2809528307246408</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1922079214588947</v>
+        <v>0.1922079214588948</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.3230117052034055</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.2403304581746528</v>
+        <v>0.2403304581746527</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3374152538852375</v>
+        <v>0.3322600770084704</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2684642052291686</v>
+        <v>0.2708785142433496</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2463613401947544</v>
+        <v>0.2454541528753882</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1699258118396219</v>
+        <v>0.1714954763998521</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2984268664966065</v>
+        <v>0.2964108301355524</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.219346058399899</v>
+        <v>0.2189506999672032</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4125902846467448</v>
+        <v>0.4112712441791683</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3555658821587929</v>
+        <v>0.3565334010952035</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3169729717897632</v>
+        <v>0.3158621043980239</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.217729771495327</v>
+        <v>0.2180323145510376</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3491509379174079</v>
+        <v>0.3493253448985617</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2641707709781637</v>
+        <v>0.2649346841713604</v>
       </c>
     </row>
     <row r="19">
@@ -1022,19 +1022,19 @@
         <v>0.222022665215468</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.06431320277431167</v>
+        <v>0.0643132027743117</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.1472060878687327</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.0961485671399855</v>
+        <v>0.09614856713998551</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.1629242638154377</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.08919177730110432</v>
+        <v>0.08919177730110431</v>
       </c>
     </row>
     <row r="20">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1782537465925448</v>
+        <v>0.1726354668431025</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03025255408774153</v>
+        <v>0.02840903777302965</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1268548246737334</v>
+        <v>0.1265283919551516</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07798383282141622</v>
+        <v>0.07856178543117577</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1430306108979446</v>
+        <v>0.1436881603521273</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.07232422199614461</v>
+        <v>0.07291927260881814</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2760391705924843</v>
+        <v>0.2712488390200001</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1163405763290644</v>
+        <v>0.1255420739764875</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1704820259986516</v>
+        <v>0.1708440113252644</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1191138229705938</v>
+        <v>0.1182295381660897</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1829939198186967</v>
+        <v>0.1832680962369889</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1099141570178042</v>
+        <v>0.1099504113458652</v>
       </c>
     </row>
     <row r="22">
@@ -1104,7 +1104,7 @@
         <v>0.3210392654433643</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2361556150936676</v>
+        <v>0.2361556150936675</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.2403678964640633</v>
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3061326919003199</v>
+        <v>0.3030072758121101</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2200912178042156</v>
+        <v>0.2199303940964715</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2264521260698009</v>
+        <v>0.2265023035896108</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1587023155385396</v>
+        <v>0.1576705157938618</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2684998576373783</v>
+        <v>0.2688272057757785</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1921679489496882</v>
+        <v>0.1924191338148368</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.338550677358365</v>
+        <v>0.3376844390522193</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2527212289541982</v>
+        <v>0.2516216514169377</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2548221433112922</v>
+        <v>0.2560128525882041</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1803152180760018</v>
+        <v>0.1793430403885821</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2899218451930214</v>
+        <v>0.2908044198910536</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2120033136350372</v>
+        <v>0.2129768067809515</v>
       </c>
     </row>
     <row r="25">
@@ -1357,22 +1357,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>74296</v>
+        <v>76144</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>69861</v>
+        <v>66615</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>45471</v>
+        <v>45526</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>46209</v>
+        <v>46270</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>129172</v>
+        <v>129959</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>122153</v>
+        <v>121960</v>
       </c>
     </row>
     <row r="7">
@@ -1383,22 +1383,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>110069</v>
+        <v>112300</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>103496</v>
+        <v>103965</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>75045</v>
+        <v>73213</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>69591</v>
+        <v>70188</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>173093</v>
+        <v>174460</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>165172</v>
+        <v>164813</v>
       </c>
     </row>
     <row r="8">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>78006</v>
+        <v>76151</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>68894</v>
+        <v>69220</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>76499</v>
+        <v>76665</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>65109</v>
+        <v>65667</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>163828</v>
+        <v>162834</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>141283</v>
+        <v>142521</v>
       </c>
     </row>
     <row r="11">
@@ -1491,22 +1491,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>110967</v>
+        <v>111237</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>103504</v>
+        <v>103173</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>112032</v>
+        <v>110259</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>94232</v>
+        <v>94949</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>210408</v>
+        <v>209965</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>185146</v>
+        <v>187429</v>
       </c>
     </row>
     <row r="12">
@@ -1573,22 +1573,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>182202</v>
+        <v>180625</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>98152</v>
+        <v>97523</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>34928</v>
+        <v>34574</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>17671</v>
+        <v>17628</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>223223</v>
+        <v>225732</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>124521</v>
+        <v>123411</v>
       </c>
     </row>
     <row r="15">
@@ -1599,22 +1599,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>227147</v>
+        <v>224048</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>138563</v>
+        <v>138703</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>58235</v>
+        <v>58861</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>33635</v>
+        <v>32402</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>274829</v>
+        <v>275413</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>167212</v>
+        <v>168388</v>
       </c>
     </row>
     <row r="16">
@@ -1681,22 +1681,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>370789</v>
+        <v>369070</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>299526</v>
+        <v>300938</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>258022</v>
+        <v>258515</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>188363</v>
+        <v>189509</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>645659</v>
+        <v>644039</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>503758</v>
+        <v>506827</v>
       </c>
     </row>
     <row r="19">
@@ -1707,22 +1707,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>437196</v>
+        <v>432203</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>364246</v>
+        <v>366694</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>312367</v>
+        <v>311774</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>233581</v>
+        <v>233917</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>728291</v>
+        <v>727154</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>587563</v>
+        <v>590135</v>
       </c>
     </row>
     <row r="20">
@@ -1789,22 +1789,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>209436</v>
+        <v>206236</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>152188</v>
+        <v>153556</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>181606</v>
+        <v>180938</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>141063</v>
+        <v>142366</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>405222</v>
+        <v>402485</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>306432</v>
+        <v>305880</v>
       </c>
     </row>
     <row r="23">
@@ -1815,22 +1815,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>256097</v>
+        <v>255279</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>201564</v>
+        <v>202112</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>233658</v>
+        <v>232839</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>180747</v>
+        <v>180998</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>474098</v>
+        <v>474335</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>369053</v>
+        <v>370121</v>
       </c>
     </row>
     <row r="24">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>51185</v>
+        <v>49571</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>7142</v>
+        <v>6707</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>136956</v>
+        <v>136604</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>65840</v>
+        <v>66328</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>195491</v>
+        <v>196389</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>78137</v>
+        <v>78780</v>
       </c>
     </row>
     <row r="27">
@@ -1923,22 +1923,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>79263</v>
+        <v>77888</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>27466</v>
+        <v>29639</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>184058</v>
+        <v>184448</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>100566</v>
+        <v>99819</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>250112</v>
+        <v>250486</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>118748</v>
+        <v>118787</v>
       </c>
     </row>
     <row r="28">
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1035887</v>
+        <v>1025311</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>757169</v>
+        <v>756616</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>798506</v>
+        <v>798683</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>576722</v>
+        <v>572972</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1855319</v>
+        <v>1857581</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1359442</v>
+        <v>1361219</v>
       </c>
     </row>
     <row r="31">
@@ -2031,22 +2031,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1145583</v>
+        <v>1142652</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>869425</v>
+        <v>865642</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>898543</v>
+        <v>902742</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>655263</v>
+        <v>651730</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>2003343</v>
+        <v>2009442</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1499762</v>
+        <v>1506648</v>
       </c>
     </row>
     <row r="32">
